--- a/data/trans_orig/P76_M_2012-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P76_M_2012-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1486F9EC-B860-4257-850F-53A82A37986E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{764B075E-1933-4474-97AE-AFB3EC5F0923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3DA1C64F-B871-49E6-882B-B829BA147D6B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EACA8704-C582-41CE-8F55-EF904396B60F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -74,58 +74,58 @@
     <t>31,48%</t>
   </si>
   <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
   </si>
   <si>
     <t>28,03%</t>
   </si>
   <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>Trabajadores no cualificados</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
     <t>23,9%</t>
   </si>
   <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>Trabajadores no cualificados</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
+    <t>32,32%</t>
   </si>
   <si>
     <t>29,04%</t>
   </si>
   <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
   </si>
   <si>
     <t>28,42%</t>
   </si>
   <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
   </si>
   <si>
     <t>Trabajadores manuales semicualificados</t>
@@ -134,1138 +134,1138 @@
     <t>8,19%</t>
   </si>
   <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
   </si>
   <si>
     <t>8,86%</t>
   </si>
   <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
   </si>
   <si>
     <t>8,52%</t>
   </si>
   <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>Trabajadores manuales cualificados</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>Empleados de tipo adtvo y prof de apoyo gestión adtva y fina</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>Direct.empresas con menos 10 asal. Prof. asociadas a una tit</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>Direct AAPP y empresas 10 o más asal.Prof. asociadas a titul</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
     <t>6,73%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>Trabajadores manuales cualificados</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>Empleados de tipo adtvo y prof de apoyo gestión adtva y fina</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>Direct.empresas con menos 10 asal. Prof. asociadas a una tit</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
   </si>
   <si>
     <t>5,1%</t>
   </si>
   <si>
-    <t>Direct AAPP y empresas 10 o más asal.Prof. asociadas a titul</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
   </si>
   <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>0,65%</t>
+    <t>0,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1680,7 +1680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BC1349-D2A8-4D2F-ADD0-5A764568F150}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075028AD-F381-43B9-BF27-34DF17E7D536}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2433,13 +2433,13 @@
         <v>43910</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
@@ -2448,13 +2448,13 @@
         <v>98927</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,13 +2469,13 @@
         <v>10621</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -2484,13 +2484,13 @@
         <v>20022</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -2499,13 +2499,13 @@
         <v>30643</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,13 +2520,13 @@
         <v>8505</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -2535,13 +2535,13 @@
         <v>5631</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M18" s="7">
         <v>13</v>
@@ -2550,13 +2550,13 @@
         <v>14137</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,7 +2612,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2624,13 +2624,13 @@
         <v>319585</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H20" s="7">
         <v>303</v>
@@ -2639,13 +2639,13 @@
         <v>322070</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M20" s="7">
         <v>609</v>
@@ -2654,13 +2654,13 @@
         <v>641655</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,13 +2675,13 @@
         <v>207096</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H21" s="7">
         <v>206</v>
@@ -2690,13 +2690,13 @@
         <v>218667</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M21" s="7">
         <v>402</v>
@@ -2705,13 +2705,13 @@
         <v>425763</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2726,13 +2726,13 @@
         <v>31375</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H22" s="7">
         <v>44</v>
@@ -2741,13 +2741,13 @@
         <v>45525</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M22" s="7">
         <v>76</v>
@@ -2756,13 +2756,13 @@
         <v>76901</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,13 +2777,13 @@
         <v>50368</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H23" s="7">
         <v>53</v>
@@ -2792,13 +2792,13 @@
         <v>58836</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M23" s="7">
         <v>102</v>
@@ -2807,13 +2807,13 @@
         <v>109205</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,13 +2828,13 @@
         <v>22382</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H24" s="7">
         <v>22</v>
@@ -2843,13 +2843,13 @@
         <v>22231</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M24" s="7">
         <v>43</v>
@@ -2858,13 +2858,13 @@
         <v>44613</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,13 +2879,13 @@
         <v>10810</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>189</v>
+        <v>73</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -2894,13 +2894,13 @@
         <v>7667</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -2909,13 +2909,13 @@
         <v>18477</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2930,13 @@
         <v>1190</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2945,13 +2945,13 @@
         <v>1840</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2960,13 +2960,13 @@
         <v>3030</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,7 +3022,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3034,13 +3034,13 @@
         <v>287107</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H28" s="7">
         <v>258</v>
@@ -3049,13 +3049,13 @@
         <v>292012</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M28" s="7">
         <v>512</v>
@@ -3064,13 +3064,13 @@
         <v>579119</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3085,13 @@
         <v>194684</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H29" s="7">
         <v>178</v>
@@ -3100,13 +3100,13 @@
         <v>206812</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M29" s="7">
         <v>356</v>
@@ -3115,13 +3115,13 @@
         <v>401496</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,10 +3139,10 @@
         <v>103</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H30" s="7">
         <v>34</v>
@@ -3151,13 +3151,13 @@
         <v>38603</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M30" s="7">
         <v>64</v>
@@ -3166,13 +3166,13 @@
         <v>72059</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,13 +3187,13 @@
         <v>34180</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H31" s="7">
         <v>19</v>
@@ -3202,10 +3202,10 @@
         <v>20332</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>233</v>
+        <v>131</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>234</v>
@@ -3217,13 +3217,13 @@
         <v>54512</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,10 +3238,10 @@
         <v>14849</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>239</v>
@@ -3295,7 +3295,7 @@
         <v>247</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>248</v>
+        <v>107</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -3304,7 +3304,7 @@
         <v>4971</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>193</v>
+        <v>248</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>249</v>
@@ -3322,10 +3322,10 @@
         <v>251</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>197</v>
+        <v>252</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3340,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3355,13 +3355,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3370,13 +3370,13 @@
         <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,7 +3432,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -3444,13 +3444,13 @@
         <v>241895</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H36" s="7">
         <v>214</v>
@@ -3459,13 +3459,13 @@
         <v>233338</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M36" s="7">
         <v>433</v>
@@ -3474,13 +3474,13 @@
         <v>475232</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3495,13 @@
         <v>128621</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H37" s="7">
         <v>124</v>
@@ -3510,13 +3510,13 @@
         <v>139097</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M37" s="7">
         <v>245</v>
@@ -3525,13 +3525,13 @@
         <v>267718</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,13 +3546,13 @@
         <v>12841</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H38" s="7">
         <v>19</v>
@@ -3561,13 +3561,13 @@
         <v>21876</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M38" s="7">
         <v>31</v>
@@ -3576,13 +3576,13 @@
         <v>34717</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>239</v>
+        <v>282</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,13 +3597,13 @@
         <v>14171</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H39" s="7">
         <v>20</v>
@@ -3612,13 +3612,13 @@
         <v>22505</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M39" s="7">
         <v>33</v>
@@ -3627,13 +3627,13 @@
         <v>36676</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,13 +3648,13 @@
         <v>5287</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>189</v>
+        <v>295</v>
       </c>
       <c r="H40" s="7">
         <v>6</v>
@@ -3663,13 +3663,13 @@
         <v>6543</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>293</v>
+        <v>143</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="M40" s="7">
         <v>10</v>
@@ -3678,13 +3678,13 @@
         <v>11830</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,13 +3699,13 @@
         <v>2116</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="H41" s="7">
         <v>3</v>
@@ -3714,13 +3714,13 @@
         <v>3050</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>72</v>
+        <v>301</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M41" s="7">
         <v>5</v>
@@ -3729,13 +3729,13 @@
         <v>5166</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>300</v>
+        <v>203</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,13 +3750,13 @@
         <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -3765,13 +3765,13 @@
         <v>1005</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -3780,13 +3780,13 @@
         <v>1005</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>141</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,7 +3842,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -3854,13 +3854,13 @@
         <v>303035</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H44" s="7">
         <v>334</v>
@@ -3869,13 +3869,13 @@
         <v>355413</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M44" s="7">
         <v>605</v>
@@ -3884,13 +3884,13 @@
         <v>658448</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,13 +3905,13 @@
         <v>185150</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H45" s="7">
         <v>242</v>
@@ -3920,13 +3920,13 @@
         <v>258645</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M45" s="7">
         <v>413</v>
@@ -3935,13 +3935,13 @@
         <v>443796</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,13 +3956,13 @@
         <v>12555</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H46" s="7">
         <v>27</v>
@@ -3971,13 +3971,13 @@
         <v>29810</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M46" s="7">
         <v>39</v>
@@ -3986,13 +3986,13 @@
         <v>42365</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>79</v>
+        <v>334</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>331</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,13 +4007,13 @@
         <v>24711</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H47" s="7">
         <v>34</v>
@@ -4022,13 +4022,13 @@
         <v>37727</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>242</v>
+        <v>338</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="M47" s="7">
         <v>52</v>
@@ -4037,13 +4037,13 @@
         <v>62438</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>69</v>
+        <v>341</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>338</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,13 +4058,13 @@
         <v>4050</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>78</v>
+        <v>298</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H48" s="7">
         <v>8</v>
@@ -4073,13 +4073,13 @@
         <v>8687</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>343</v>
+        <v>79</v>
       </c>
       <c r="M48" s="7">
         <v>12</v>
@@ -4088,13 +4088,13 @@
         <v>12738</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,13 +4109,13 @@
         <v>2059</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H49" s="7">
         <v>2</v>
@@ -4124,13 +4124,13 @@
         <v>2139</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>350</v>
+        <v>142</v>
       </c>
       <c r="M49" s="7">
         <v>4</v>
@@ -4139,13 +4139,13 @@
         <v>4197</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4160,13 @@
         <v>0</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -4175,13 +4175,13 @@
         <v>0</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -4190,13 +4190,13 @@
         <v>0</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,13 +4264,13 @@
         <v>1567742</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H52" s="7">
         <v>1454</v>
@@ -4279,28 +4279,28 @@
         <v>1557630</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M52" s="7">
         <v>2914</v>
       </c>
       <c r="N52" s="7">
-        <v>3125373</v>
+        <v>3125372</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4315,13 @@
         <v>1033703</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>368</v>
+        <v>214</v>
       </c>
       <c r="H53" s="7">
         <v>1034</v>
@@ -4330,28 +4330,28 @@
         <v>1122318</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M53" s="7">
         <v>2010</v>
       </c>
       <c r="N53" s="7">
-        <v>2156022</v>
+        <v>2156021</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>26</v>
+        <v>375</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4366,13 @@
         <v>165266</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>376</v>
+        <v>169</v>
       </c>
       <c r="H54" s="7">
         <v>193</v>
@@ -4381,7 +4381,7 @@
         <v>206631</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>378</v>
@@ -4402,7 +4402,7 @@
         <v>381</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>329</v>
+        <v>382</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,13 +4417,13 @@
         <v>247754</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>232</v>
+        <v>385</v>
       </c>
       <c r="H55" s="7">
         <v>259</v>
@@ -4432,13 +4432,13 @@
         <v>282408</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M55" s="7">
         <v>488</v>
@@ -4447,13 +4447,13 @@
         <v>530162</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>108</v>
+        <v>389</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,13 +4468,13 @@
         <v>154839</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="H56" s="7">
         <v>143</v>
@@ -4483,13 +4483,13 @@
         <v>154611</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="M56" s="7">
         <v>289</v>
@@ -4498,13 +4498,13 @@
         <v>309450</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4519,13 +4519,13 @@
         <v>59589</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>397</v>
+        <v>304</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>398</v>
+        <v>79</v>
       </c>
       <c r="H57" s="7">
         <v>44</v>
@@ -4534,13 +4534,13 @@
         <v>48387</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M57" s="7">
         <v>95</v>
@@ -4549,10 +4549,10 @@
         <v>107976</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>403</v>
+        <v>293</v>
       </c>
       <c r="Q57" s="7" t="s">
         <v>404</v>
@@ -4573,10 +4573,10 @@
         <v>405</v>
       </c>
       <c r="F58" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H58" s="7">
         <v>13</v>
@@ -4585,10 +4585,10 @@
         <v>13354</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>406</v>
+        <v>201</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>407</v>
@@ -4603,7 +4603,7 @@
         <v>408</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Q58" s="7" t="s">
         <v>409</v>
@@ -4648,7 +4648,7 @@
         <v>6179</v>
       </c>
       <c r="N59" s="7">
-        <v>6631323</v>
+        <v>6631322</v>
       </c>
       <c r="O59" s="7" t="s">
         <v>80</v>

--- a/data/trans_orig/P76_M_2012-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P76_M_2012-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{764B075E-1933-4474-97AE-AFB3EC5F0923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{314717D8-778A-4A10-87C5-4CC34552848F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EACA8704-C582-41CE-8F55-EF904396B60F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{52DEA23D-2823-43AC-A8EC-71C69559D2D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="405">
   <si>
     <t>Población según era la situación laboral de su madre cuando tenía 12 años en 2012 (Tasa respuesta: 94,96%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>31,48%</t>
   </si>
   <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
   </si>
   <si>
     <t>28,03%</t>
   </si>
   <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
   </si>
   <si>
     <t>29,8%</t>
   </si>
   <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
   </si>
   <si>
     <t>Trabajadores no cualificados</t>
@@ -104,28 +104,28 @@
     <t>27,83%</t>
   </si>
   <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
   </si>
   <si>
     <t>29,04%</t>
   </si>
   <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
   </si>
   <si>
     <t>28,42%</t>
   </si>
   <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
   </si>
   <si>
     <t>Trabajadores manuales semicualificados</t>
@@ -134,1138 +134,1120 @@
     <t>8,19%</t>
   </si>
   <si>
-    <t>5,72%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>Trabajadores manuales cualificados</t>
+  </si>
+  <si>
+    <t>13,9%</t>
   </si>
   <si>
     <t>11,0%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>Empleados de tipo adtvo y prof de apoyo gestión adtva y fina</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>Direct.empresas con menos 10 asal. Prof. asociadas a una tit</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>Direct AAPP y empresas 10 o más asal.Prof. asociadas a titul</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
   </si>
   <si>
     <t>6,74%</t>
   </si>
   <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>Trabajadores manuales cualificados</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>Empleados de tipo adtvo y prof de apoyo gestión adtva y fina</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>Direct.empresas con menos 10 asal. Prof. asociadas a una tit</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>Direct AAPP y empresas 10 o más asal.Prof. asociadas a titul</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
   </si>
   <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
   </si>
   <si>
     <t>4,57%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>0,64%</t>
+    <t>0,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1680,7 +1662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075028AD-F381-43B9-BF27-34DF17E7D536}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C905C428-DCBE-4C86-8DE5-A53496063472}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2454,7 +2436,7 @@
         <v>125</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,13 +2451,13 @@
         <v>10621</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -2484,13 +2466,13 @@
         <v>20022</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -2499,13 +2481,13 @@
         <v>30643</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,13 +2502,13 @@
         <v>8505</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -2535,13 +2517,13 @@
         <v>5631</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M18" s="7">
         <v>13</v>
@@ -2550,13 +2532,13 @@
         <v>14137</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,7 +2594,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2624,13 +2606,13 @@
         <v>319585</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H20" s="7">
         <v>303</v>
@@ -2639,13 +2621,13 @@
         <v>322070</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M20" s="7">
         <v>609</v>
@@ -2654,13 +2636,13 @@
         <v>641655</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,13 +2657,13 @@
         <v>207096</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H21" s="7">
         <v>206</v>
@@ -2690,13 +2672,13 @@
         <v>218667</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M21" s="7">
         <v>402</v>
@@ -2885,7 +2867,7 @@
         <v>191</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>73</v>
+        <v>192</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -2894,13 +2876,13 @@
         <v>7667</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -2909,13 +2891,13 @@
         <v>18477</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2912,13 @@
         <v>1190</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2945,13 +2927,13 @@
         <v>1840</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2960,13 +2942,13 @@
         <v>3030</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,7 +3004,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3034,13 +3016,13 @@
         <v>287107</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H28" s="7">
         <v>258</v>
@@ -3049,13 +3031,13 @@
         <v>292012</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M28" s="7">
         <v>512</v>
@@ -3064,13 +3046,13 @@
         <v>579119</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3067,13 @@
         <v>194684</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H29" s="7">
         <v>178</v>
@@ -3100,13 +3082,13 @@
         <v>206812</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M29" s="7">
         <v>356</v>
@@ -3115,13 +3097,13 @@
         <v>401496</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,10 +3121,10 @@
         <v>103</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H30" s="7">
         <v>34</v>
@@ -3151,13 +3133,13 @@
         <v>38603</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M30" s="7">
         <v>64</v>
@@ -3166,13 +3148,13 @@
         <v>72059</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,13 +3169,13 @@
         <v>34180</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H31" s="7">
         <v>19</v>
@@ -3205,10 +3187,10 @@
         <v>181</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>131</v>
+        <v>235</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M31" s="7">
         <v>47</v>
@@ -3217,13 +3199,13 @@
         <v>54512</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,13 +3220,13 @@
         <v>14849</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>238</v>
+        <v>137</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>194</v>
+        <v>65</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
@@ -3253,13 +3235,13 @@
         <v>21140</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>242</v>
+        <v>173</v>
       </c>
       <c r="M32" s="7">
         <v>32</v>
@@ -3268,13 +3250,13 @@
         <v>35989</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,13 +3271,13 @@
         <v>14137</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -3304,13 +3286,13 @@
         <v>4971</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M33" s="7">
         <v>13</v>
@@ -3319,13 +3301,13 @@
         <v>19108</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>253</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3355,13 +3337,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3370,13 +3352,13 @@
         <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,7 +3414,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -3444,13 +3426,13 @@
         <v>241895</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H36" s="7">
         <v>214</v>
@@ -3459,13 +3441,13 @@
         <v>233338</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M36" s="7">
         <v>433</v>
@@ -3474,13 +3456,13 @@
         <v>475232</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3477,13 @@
         <v>128621</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H37" s="7">
         <v>124</v>
@@ -3510,13 +3492,13 @@
         <v>139097</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M37" s="7">
         <v>245</v>
@@ -3525,13 +3507,13 @@
         <v>267718</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,13 +3528,13 @@
         <v>12841</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>277</v>
+        <v>126</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H38" s="7">
         <v>19</v>
@@ -3561,13 +3543,13 @@
         <v>21876</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M38" s="7">
         <v>31</v>
@@ -3576,13 +3558,13 @@
         <v>34717</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,13 +3579,13 @@
         <v>14171</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>285</v>
+        <v>164</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H39" s="7">
         <v>20</v>
@@ -3612,13 +3594,13 @@
         <v>22505</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>289</v>
+        <v>187</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="M39" s="7">
         <v>33</v>
@@ -3627,13 +3609,13 @@
         <v>36676</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>291</v>
+        <v>66</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,13 +3630,13 @@
         <v>5287</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>295</v>
+        <v>67</v>
       </c>
       <c r="H40" s="7">
         <v>6</v>
@@ -3663,13 +3645,13 @@
         <v>6543</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>143</v>
+        <v>290</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="M40" s="7">
         <v>10</v>
@@ -3678,13 +3660,13 @@
         <v>11830</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,13 +3681,13 @@
         <v>2116</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="H41" s="7">
         <v>3</v>
@@ -3714,13 +3696,13 @@
         <v>3050</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M41" s="7">
         <v>5</v>
@@ -3729,13 +3711,13 @@
         <v>5166</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,13 +3732,13 @@
         <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -3765,13 +3747,13 @@
         <v>1005</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>305</v>
+        <v>245</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -3780,13 +3762,13 @@
         <v>1005</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,7 +3824,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -3854,13 +3836,13 @@
         <v>303035</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H44" s="7">
         <v>334</v>
@@ -3869,13 +3851,13 @@
         <v>355413</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M44" s="7">
         <v>605</v>
@@ -3884,13 +3866,13 @@
         <v>658448</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,13 +3887,13 @@
         <v>185150</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H45" s="7">
         <v>242</v>
@@ -3920,13 +3902,13 @@
         <v>258645</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>321</v>
+        <v>223</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M45" s="7">
         <v>413</v>
@@ -3935,13 +3917,13 @@
         <v>443796</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,13 +3938,13 @@
         <v>12555</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="H46" s="7">
         <v>27</v>
@@ -3971,13 +3953,13 @@
         <v>29810</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="M46" s="7">
         <v>39</v>
@@ -3986,13 +3968,13 @@
         <v>42365</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>61</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,13 +3989,13 @@
         <v>24711</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>335</v>
+        <v>107</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H47" s="7">
         <v>34</v>
@@ -4022,13 +4004,13 @@
         <v>37727</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="M47" s="7">
         <v>52</v>
@@ -4037,13 +4019,13 @@
         <v>62438</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>179</v>
+        <v>337</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,13 +4040,13 @@
         <v>4050</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>298</v>
+        <v>191</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H48" s="7">
         <v>8</v>
@@ -4073,13 +4055,13 @@
         <v>8687</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="M48" s="7">
         <v>12</v>
@@ -4088,13 +4070,13 @@
         <v>12738</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,13 +4091,13 @@
         <v>2059</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="H49" s="7">
         <v>2</v>
@@ -4124,13 +4106,13 @@
         <v>2139</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M49" s="7">
         <v>4</v>
@@ -4139,13 +4121,13 @@
         <v>4197</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4142,13 @@
         <v>0</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -4175,13 +4157,13 @@
         <v>0</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -4190,13 +4172,13 @@
         <v>0</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,13 +4246,13 @@
         <v>1567742</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="H52" s="7">
         <v>1454</v>
@@ -4279,13 +4261,13 @@
         <v>1557630</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M52" s="7">
         <v>2914</v>
@@ -4294,13 +4276,13 @@
         <v>3125372</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4297,13 @@
         <v>1033703</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>214</v>
+        <v>364</v>
       </c>
       <c r="H53" s="7">
         <v>1034</v>
@@ -4330,13 +4312,13 @@
         <v>1122318</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="M53" s="7">
         <v>2010</v>
@@ -4345,13 +4327,13 @@
         <v>2156021</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>375</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4348,13 @@
         <v>165266</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>169</v>
+        <v>286</v>
       </c>
       <c r="H54" s="7">
         <v>193</v>
@@ -4381,13 +4363,13 @@
         <v>206631</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M54" s="7">
         <v>354</v>
@@ -4396,13 +4378,13 @@
         <v>371896</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>382</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,13 +4399,13 @@
         <v>247754</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="H55" s="7">
         <v>259</v>
@@ -4432,13 +4414,13 @@
         <v>282408</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>121</v>
+        <v>381</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="M55" s="7">
         <v>488</v>
@@ -4447,13 +4429,13 @@
         <v>530162</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>390</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,13 +4450,13 @@
         <v>154839</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>391</v>
+        <v>227</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>392</v>
+        <v>104</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="H56" s="7">
         <v>143</v>
@@ -4483,13 +4465,13 @@
         <v>154611</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>189</v>
+        <v>386</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>394</v>
+        <v>336</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="M56" s="7">
         <v>289</v>
@@ -4498,13 +4480,13 @@
         <v>309450</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4519,13 +4501,13 @@
         <v>59589</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>304</v>
+        <v>392</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="H57" s="7">
         <v>44</v>
@@ -4534,13 +4516,13 @@
         <v>48387</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="M57" s="7">
         <v>95</v>
@@ -4549,13 +4531,13 @@
         <v>107976</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>293</v>
+        <v>398</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4570,13 +4552,13 @@
         <v>17091</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>405</v>
+        <v>343</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
       <c r="H58" s="7">
         <v>13</v>
@@ -4585,13 +4567,13 @@
         <v>13354</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>201</v>
+        <v>338</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>407</v>
+        <v>204</v>
       </c>
       <c r="M58" s="7">
         <v>29</v>
@@ -4600,13 +4582,13 @@
         <v>30445</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4662,7 +4644,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
